--- a/upload.xlsx
+++ b/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmo/PycharmProjects/muncho_management_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C878B6B9-0EDF-FC48-9837-47755C32A0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4A32C-B265-0642-9BA7-B00B8FF32D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{4FB1EE0F-947D-40BB-96F6-7A09CDA0866D}"/>
   </bookViews>
@@ -22,12 +22,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="125">
   <si>
     <t>nameEN</t>
   </si>
@@ -215,12 +223,6 @@
     <t>testing4</t>
   </si>
   <si>
-    <t>好吃的</t>
-  </si>
-  <si>
-    <t>testing3</t>
-  </si>
-  <si>
     <t>民主党吃的食物系列</t>
   </si>
   <si>
@@ -279,6 +281,135 @@
   </si>
   <si>
     <t>democrat's food</t>
+  </si>
+  <si>
+    <t>Junk Canon Ball</t>
+  </si>
+  <si>
+    <t>行星的力量是无穷的</t>
+  </si>
+  <si>
+    <t>垃圾加农</t>
+  </si>
+  <si>
+    <t>Yammy Canon</t>
+  </si>
+  <si>
+    <t>直径</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>30cm</t>
+  </si>
+  <si>
+    <t>30厘米</t>
+  </si>
+  <si>
+    <t>黑火药</t>
+  </si>
+  <si>
+    <t>Fcking Gun Powder</t>
+  </si>
+  <si>
+    <t>weapon enhancement</t>
+  </si>
+  <si>
+    <t>武器加料</t>
+  </si>
+  <si>
+    <t>好吃的加农炮</t>
+  </si>
+  <si>
+    <t>迪士尼巨无霸</t>
+  </si>
+  <si>
+    <t>Disney Big Mac</t>
+  </si>
+  <si>
+    <t>Disney is an evil company</t>
+  </si>
+  <si>
+    <t>迪士尼是邪恶公司</t>
+  </si>
+  <si>
+    <t>disnesy special add on</t>
+  </si>
+  <si>
+    <t>迪士尼特殊加料</t>
+  </si>
+  <si>
+    <t>black fairy tale</t>
+  </si>
+  <si>
+    <t>黑童话</t>
+  </si>
+  <si>
+    <t>公主暗杀团</t>
+  </si>
+  <si>
+    <t>Princess Assassin team</t>
+  </si>
+  <si>
+    <t>bernie's food</t>
+  </si>
+  <si>
+    <t>社会党的食物</t>
+  </si>
+  <si>
+    <t>社会主义buff</t>
+  </si>
+  <si>
+    <t>The buff from socialism</t>
+  </si>
+  <si>
+    <t>All hail socialism</t>
+  </si>
+  <si>
+    <t>社会主义大法好</t>
+  </si>
+  <si>
+    <t>形态</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>early stage</t>
+  </si>
+  <si>
+    <t>早期</t>
+  </si>
+  <si>
+    <t>socialism add on</t>
+  </si>
+  <si>
+    <t>社会主义加料</t>
+  </si>
+  <si>
+    <t>激励</t>
+  </si>
+  <si>
+    <t>inspiration</t>
+  </si>
+  <si>
+    <t>标语</t>
+  </si>
+  <si>
+    <t>socialism side buffs</t>
+  </si>
+  <si>
+    <t>社会主义附属加成</t>
+  </si>
+  <si>
+    <t>slogan</t>
+  </si>
+  <si>
+    <t>enlightenmen</t>
+  </si>
+  <si>
+    <t>启蒙</t>
   </si>
 </sst>
 </file>
@@ -653,7 +784,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +797,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -685,26 +816,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -722,10 +853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37974C09-3F89-4603-8F73-3BAB6DE9791A}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="119" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -975,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1059,7 +1190,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -1141,7 +1272,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
@@ -1223,22 +1354,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="b">
         <v>1</v>
@@ -1265,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
@@ -1292,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -1306,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2</v>
@@ -1335,7 +1466,7 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -1346,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1431,11 +1562,17 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
@@ -1579,7 +1716,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
@@ -1640,22 +1777,22 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G41" s="1" t="b">
         <v>0</v>
@@ -1669,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -1702,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -1716,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2</v>
@@ -1745,10 +1882,776 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>300</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>777</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>700</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7700</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>200</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>99900</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="1">
+        <v>5</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>100</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>100</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>100</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>200</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>100</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O81" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
